--- a/examples/sources/data/unsolved/to_schedule/2019-02-19.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-19.xlsx
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="2">
         <v>43515</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="2">
         <v>43515</v>
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="2">
         <v>43515</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" s="2">
         <v>43515</v>
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" s="2">
         <v>43515</v>
@@ -3764,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="2">
         <v>43515</v>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="2">
         <v>43515</v>
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" s="2">
         <v>43515</v>
@@ -4429,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83" s="2">
         <v>43515</v>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -5012,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" s="2">
         <v>43515</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158">
         <v>1</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N162">
         <v>1</v>
